--- a/Tuning Database.xlsx
+++ b/Tuning Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackrockett/PycharmProjects/J70_Tuning_Guide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1007F5-3240-E64F-829B-3AB77C01FCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EB0C07-2C81-D648-B0D8-9828AF1665F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rig Tuning Database" sheetId="1" r:id="rId1"/>
@@ -428,8 +428,8 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B2:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -467,7 +467,7 @@
       <c r="A2" s="1">
         <v>1425</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2">
@@ -493,7 +493,7 @@
       <c r="A3" s="1">
         <v>1425</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="2">
@@ -519,7 +519,7 @@
       <c r="A4" s="1">
         <v>1425</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="C4" s="2">
@@ -545,7 +545,7 @@
       <c r="A5" s="1">
         <v>1425</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>4</v>
       </c>
       <c r="C5" s="2">
@@ -571,7 +571,7 @@
       <c r="A6" s="1">
         <v>1425</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>5</v>
       </c>
       <c r="C6" s="2">
@@ -597,7 +597,7 @@
       <c r="A7" s="1">
         <v>1425</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>6</v>
       </c>
       <c r="C7" s="2">
@@ -623,7 +623,7 @@
       <c r="A8" s="1">
         <v>1425</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>7</v>
       </c>
       <c r="C8" s="2">
@@ -649,7 +649,7 @@
       <c r="A9" s="1">
         <v>1425</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -675,7 +675,7 @@
       <c r="A10" s="1">
         <v>1425</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -701,7 +701,7 @@
       <c r="A11" s="1">
         <v>1425</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -727,7 +727,7 @@
       <c r="A12" s="1">
         <v>1425</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>11</v>
       </c>
       <c r="C12" s="2">
@@ -753,7 +753,7 @@
       <c r="A13" s="1">
         <v>1425</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>12</v>
       </c>
       <c r="C13" s="2">
@@ -779,7 +779,7 @@
       <c r="A14" s="1">
         <v>1425</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>13</v>
       </c>
       <c r="C14" s="2">
@@ -805,7 +805,7 @@
       <c r="A15" s="1">
         <v>1425</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>14</v>
       </c>
       <c r="C15" s="2">
@@ -831,7 +831,7 @@
       <c r="A16" s="1">
         <v>1425</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>15</v>
       </c>
       <c r="C16" s="2">
@@ -857,7 +857,7 @@
       <c r="A17" s="1">
         <v>1425</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>16</v>
       </c>
       <c r="C17" s="2">
@@ -883,7 +883,7 @@
       <c r="A18" s="1">
         <v>1425</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>17</v>
       </c>
       <c r="C18" s="2">
@@ -909,7 +909,7 @@
       <c r="A19" s="1">
         <v>1425</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>18</v>
       </c>
       <c r="C19" s="2">
@@ -935,7 +935,7 @@
       <c r="A20" s="1">
         <v>1425</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>19</v>
       </c>
       <c r="C20" s="2">
@@ -961,7 +961,7 @@
       <c r="A21" s="1">
         <v>1425</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>20</v>
       </c>
       <c r="C21" s="2">
@@ -995,7 +995,7 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/Tuning Database.xlsx
+++ b/Tuning Database.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackrockett/PycharmProjects/J70_Tuning_Guide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EB0C07-2C81-D648-B0D8-9828AF1665F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2511F8D6-C7C3-EA45-8E1C-BFFE52005B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rig Tuning Database" sheetId="1" r:id="rId1"/>
-    <sheet name="JIB Tuning Database" sheetId="2" r:id="rId2"/>
+    <sheet name="Rig_by_weight" sheetId="3" r:id="rId2"/>
+    <sheet name="JIB Tuning Database" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="47">
   <si>
     <t>RAKE</t>
   </si>
@@ -159,6 +160,9 @@
   </si>
   <si>
     <t>2inch Inside</t>
+  </si>
+  <si>
+    <t>CREW_WEIGHT</t>
   </si>
 </sst>
 </file>
@@ -166,7 +170,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -179,15 +183,22 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -202,12 +213,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,8 +442,8 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B2:B21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -989,14 +1003,1218 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CBEFC84-B3D8-FE4A-AFC9-8F9DD284FE98}">
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2">
+        <v>9</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B12" s="2">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2">
+        <v>13</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2">
+        <v>13</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B14" s="2">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>23</v>
+      </c>
+      <c r="F14" s="2">
+        <v>16</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B15" s="2">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2">
+        <v>24</v>
+      </c>
+      <c r="F15" s="2">
+        <v>21</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B16" s="2">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <v>26</v>
+      </c>
+      <c r="F16" s="2">
+        <v>23</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B17" s="2">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2">
+        <v>27</v>
+      </c>
+      <c r="F17" s="2">
+        <v>27</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B18" s="2">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2">
+        <v>28</v>
+      </c>
+      <c r="F18" s="2">
+        <v>28</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B19" s="2">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2">
+        <v>7</v>
+      </c>
+      <c r="E19" s="2">
+        <v>28</v>
+      </c>
+      <c r="F19" s="2">
+        <v>28</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B20" s="2">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2">
+        <v>29</v>
+      </c>
+      <c r="F20" s="2">
+        <v>30</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B21" s="2">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="E21" s="2">
+        <v>30</v>
+      </c>
+      <c r="F21" s="2">
+        <v>32</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="5">
+        <v>1425</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="6">
+        <v>15</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="5">
+        <v>1425</v>
+      </c>
+      <c r="B23" s="6">
+        <v>2</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="6">
+        <v>15</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="5">
+        <v>1425</v>
+      </c>
+      <c r="B24" s="6">
+        <v>3</v>
+      </c>
+      <c r="C24" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="6">
+        <v>15</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="5">
+        <v>1425</v>
+      </c>
+      <c r="B25" s="6">
+        <v>4</v>
+      </c>
+      <c r="C25" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="6">
+        <v>15</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="5">
+        <v>1425</v>
+      </c>
+      <c r="B26" s="6">
+        <v>5</v>
+      </c>
+      <c r="C26" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="6">
+        <v>15</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="5">
+        <v>1425</v>
+      </c>
+      <c r="B27" s="6">
+        <v>6</v>
+      </c>
+      <c r="C27" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="6">
+        <v>15</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="5">
+        <v>1425</v>
+      </c>
+      <c r="B28" s="6">
+        <v>7</v>
+      </c>
+      <c r="C28" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="6">
+        <v>15</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="5">
+        <v>1425</v>
+      </c>
+      <c r="B29" s="6">
+        <v>8</v>
+      </c>
+      <c r="C29" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D29" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E29" s="6">
+        <v>17</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="7">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="5">
+        <v>1425</v>
+      </c>
+      <c r="B30" s="6">
+        <v>9</v>
+      </c>
+      <c r="C30" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D30" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E30" s="6">
+        <v>17</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="7">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="5">
+        <v>1425</v>
+      </c>
+      <c r="B31" s="6">
+        <v>10</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="6">
+        <v>19</v>
+      </c>
+      <c r="F31" s="6">
+        <v>9</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="7">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="5">
+        <v>1425</v>
+      </c>
+      <c r="B32" s="6">
+        <v>11</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="6">
+        <v>19</v>
+      </c>
+      <c r="F32" s="6">
+        <v>9</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="7">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="5">
+        <v>1425</v>
+      </c>
+      <c r="B33" s="6">
+        <v>12</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="6">
+        <v>19</v>
+      </c>
+      <c r="F33" s="6">
+        <v>9</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="7">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="5">
+        <v>1425</v>
+      </c>
+      <c r="B34" s="6">
+        <v>13</v>
+      </c>
+      <c r="C34" s="6">
+        <v>2</v>
+      </c>
+      <c r="D34" s="6">
+        <v>2</v>
+      </c>
+      <c r="E34" s="6">
+        <v>21</v>
+      </c>
+      <c r="F34" s="6">
+        <v>13</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="7">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" s="5">
+        <v>1425</v>
+      </c>
+      <c r="B35" s="6">
+        <v>14</v>
+      </c>
+      <c r="C35" s="6">
+        <v>2</v>
+      </c>
+      <c r="D35" s="6">
+        <v>2</v>
+      </c>
+      <c r="E35" s="6">
+        <v>21</v>
+      </c>
+      <c r="F35" s="6">
+        <v>13</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="7">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" s="5">
+        <v>1425</v>
+      </c>
+      <c r="B36" s="6">
+        <v>15</v>
+      </c>
+      <c r="C36" s="6">
+        <v>3</v>
+      </c>
+      <c r="D36" s="6">
+        <v>3</v>
+      </c>
+      <c r="E36" s="6">
+        <v>23</v>
+      </c>
+      <c r="F36" s="6">
+        <v>16</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="7">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" s="5">
+        <v>1425</v>
+      </c>
+      <c r="B37" s="6">
+        <v>16</v>
+      </c>
+      <c r="C37" s="6">
+        <v>4</v>
+      </c>
+      <c r="D37" s="6">
+        <v>4</v>
+      </c>
+      <c r="E37" s="6">
+        <v>24</v>
+      </c>
+      <c r="F37" s="6">
+        <v>21</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="7">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="5">
+        <v>1425</v>
+      </c>
+      <c r="B38" s="6">
+        <v>17</v>
+      </c>
+      <c r="C38" s="6">
+        <v>5</v>
+      </c>
+      <c r="D38" s="6">
+        <v>5</v>
+      </c>
+      <c r="E38" s="6">
+        <v>26</v>
+      </c>
+      <c r="F38" s="6">
+        <v>23</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="7">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" s="5">
+        <v>1425</v>
+      </c>
+      <c r="B39" s="6">
+        <v>18</v>
+      </c>
+      <c r="C39" s="6">
+        <v>6</v>
+      </c>
+      <c r="D39" s="6">
+        <v>6</v>
+      </c>
+      <c r="E39" s="6">
+        <v>27</v>
+      </c>
+      <c r="F39" s="6">
+        <v>27</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="7">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="5">
+        <v>1425</v>
+      </c>
+      <c r="B40" s="6">
+        <v>19</v>
+      </c>
+      <c r="C40" s="6">
+        <v>7</v>
+      </c>
+      <c r="D40" s="6">
+        <v>7</v>
+      </c>
+      <c r="E40" s="6">
+        <v>28</v>
+      </c>
+      <c r="F40" s="6">
+        <v>28</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="6">
+        <v>1</v>
+      </c>
+      <c r="I40" s="7">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" s="5">
+        <v>1425</v>
+      </c>
+      <c r="B41" s="6">
+        <v>20</v>
+      </c>
+      <c r="C41" s="6">
+        <v>7</v>
+      </c>
+      <c r="D41" s="6">
+        <v>7</v>
+      </c>
+      <c r="E41" s="6">
+        <v>28</v>
+      </c>
+      <c r="F41" s="6">
+        <v>28</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="6">
+        <v>1</v>
+      </c>
+      <c r="I41" s="7">
+        <v>440</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Tuning Database.xlsx
+++ b/Tuning Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackrockett/PycharmProjects/J70_Tuning_Guide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2511F8D6-C7C3-EA45-8E1C-BFFE52005B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D26ED01-D327-CA4F-AAD5-03364062A75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="50">
   <si>
     <t>RAKE</t>
   </si>
@@ -163,6 +163,15 @@
   </si>
   <si>
     <t>CREW_WEIGHT</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>-1</t>
   </si>
 </sst>
 </file>
@@ -172,7 +181,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -182,6 +191,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1006,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CBEFC84-B3D8-FE4A-AFC9-8F9DD284FE98}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1051,8 +1066,8 @@
       <c r="C2" s="2">
         <v>-2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
+      <c r="D2" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="E2" s="2">
         <v>15</v>
@@ -1080,8 +1095,8 @@
       <c r="C3" s="2">
         <v>-2</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
+      <c r="D3" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="E3" s="2">
         <v>15</v>
@@ -1109,8 +1124,8 @@
       <c r="C4" s="2">
         <v>-2</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
+      <c r="D4" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="E4" s="2">
         <v>15</v>
@@ -1138,8 +1153,8 @@
       <c r="C5" s="2">
         <v>-2</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
+      <c r="D5" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="E5" s="2">
         <v>15</v>
@@ -1167,8 +1182,8 @@
       <c r="C6" s="2">
         <v>-2</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
+      <c r="D6" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="E6" s="2">
         <v>15</v>
@@ -1196,8 +1211,8 @@
       <c r="C7" s="2">
         <v>-1</v>
       </c>
-      <c r="D7" s="2">
-        <v>-1</v>
+      <c r="D7" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="E7" s="2">
         <v>17</v>
@@ -1225,8 +1240,8 @@
       <c r="C8" s="2">
         <v>-1</v>
       </c>
-      <c r="D8" s="2">
-        <v>-1</v>
+      <c r="D8" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="E8" s="2">
         <v>17</v>
@@ -1252,10 +1267,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2">
         <v>19</v>
@@ -1281,10 +1296,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2">
         <v>19</v>
@@ -1310,10 +1325,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="E11" s="2">
         <v>19</v>
@@ -1632,7 +1647,7 @@
         <v>-2</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E22" s="6">
         <v>15</v>
@@ -1661,7 +1676,7 @@
         <v>-2</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E23" s="6">
         <v>15</v>
@@ -1690,7 +1705,7 @@
         <v>-2</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E24" s="6">
         <v>15</v>
@@ -1719,7 +1734,7 @@
         <v>-2</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E25" s="6">
         <v>15</v>
@@ -1748,7 +1763,7 @@
         <v>-2</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E26" s="6">
         <v>15</v>
@@ -1777,7 +1792,7 @@
         <v>-2</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E27" s="6">
         <v>15</v>
@@ -1806,7 +1821,7 @@
         <v>-2</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E28" s="6">
         <v>15</v>
@@ -1890,10 +1905,10 @@
         <v>10</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="E31" s="6">
         <v>19</v>
@@ -1919,10 +1934,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="E32" s="6">
         <v>19</v>
@@ -1948,10 +1963,10 @@
         <v>12</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="E33" s="6">
         <v>19</v>
@@ -2202,6 +2217,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Tuning Database.xlsx
+++ b/Tuning Database.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackrockett/PycharmProjects/J70_Tuning_Guide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D26ED01-D327-CA4F-AAD5-03364062A75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB3A166-91CF-8C45-AA4C-D72F7FADCB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rig Tuning Database" sheetId="1" r:id="rId1"/>
     <sheet name="Rig_by_weight" sheetId="3" r:id="rId2"/>
     <sheet name="JIB Tuning Database" sheetId="2" r:id="rId3"/>
+    <sheet name="Template" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="50">
   <si>
     <t>RAKE</t>
   </si>
@@ -181,7 +182,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -191,6 +192,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -228,12 +236,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -457,8 +466,8 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1021,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CBEFC84-B3D8-FE4A-AFC9-8F9DD284FE98}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1066,7 +1075,7 @@
       <c r="C2" s="2">
         <v>-2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="2">
@@ -1095,7 +1104,7 @@
       <c r="C3" s="2">
         <v>-2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>48</v>
       </c>
       <c r="E3" s="2">
@@ -1124,7 +1133,7 @@
       <c r="C4" s="2">
         <v>-2</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>48</v>
       </c>
       <c r="E4" s="2">
@@ -1153,7 +1162,7 @@
       <c r="C5" s="2">
         <v>-2</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>48</v>
       </c>
       <c r="E5" s="2">
@@ -1182,7 +1191,7 @@
       <c r="C6" s="2">
         <v>-2</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>48</v>
       </c>
       <c r="E6" s="2">
@@ -1211,7 +1220,7 @@
       <c r="C7" s="2">
         <v>-1</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>49</v>
       </c>
       <c r="E7" s="2">
@@ -1240,7 +1249,7 @@
       <c r="C8" s="2">
         <v>-1</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>49</v>
       </c>
       <c r="E8" s="2">
@@ -1637,587 +1646,587 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="5">
-        <v>1425</v>
-      </c>
-      <c r="B22" s="6">
+      <c r="A22" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B22" s="7">
         <v>1</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="7">
         <v>-2</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="7">
         <v>15</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="6" t="s">
+      <c r="F22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="7">
         <v>0</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="8">
         <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="5">
-        <v>1425</v>
-      </c>
-      <c r="B23" s="6">
+      <c r="A23" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B23" s="7">
         <v>2</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="7">
         <v>-2</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="7">
         <v>15</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="6" t="s">
+      <c r="F23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="7">
         <v>0</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="8">
         <v>440</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="5">
-        <v>1425</v>
-      </c>
-      <c r="B24" s="6">
+      <c r="A24" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B24" s="7">
         <v>3</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="7">
         <v>-2</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="7">
         <v>15</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="6" t="s">
+      <c r="F24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="7">
         <v>0</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="8">
         <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="5">
-        <v>1425</v>
-      </c>
-      <c r="B25" s="6">
+      <c r="A25" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B25" s="7">
         <v>4</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="7">
         <v>-2</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="7">
         <v>15</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="6" t="s">
+      <c r="F25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="7">
         <v>0</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="8">
         <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="5">
-        <v>1425</v>
-      </c>
-      <c r="B26" s="6">
+      <c r="A26" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B26" s="7">
         <v>5</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="7">
         <v>-2</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="7">
         <v>15</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="6" t="s">
+      <c r="F26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="7">
         <v>0</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="8">
         <v>440</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="5">
-        <v>1425</v>
-      </c>
-      <c r="B27" s="6">
+      <c r="A27" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B27" s="7">
         <v>6</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="7">
         <v>-2</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="7">
         <v>15</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="6" t="s">
+      <c r="F27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="7">
         <v>0</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="8">
         <v>440</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="5">
-        <v>1425</v>
-      </c>
-      <c r="B28" s="6">
+      <c r="A28" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B28" s="7">
         <v>7</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="7">
         <v>-2</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="7">
         <v>15</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="6" t="s">
+      <c r="F28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="7">
         <v>0</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="8">
         <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="5">
-        <v>1425</v>
-      </c>
-      <c r="B29" s="6">
+      <c r="A29" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B29" s="7">
         <v>8</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="7">
         <v>-1</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="7">
         <v>-1</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="7">
         <v>17</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="6" t="s">
+      <c r="F29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="8">
         <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="5">
-        <v>1425</v>
-      </c>
-      <c r="B30" s="6">
-        <v>9</v>
-      </c>
-      <c r="C30" s="6">
+      <c r="A30" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B30" s="7">
+        <v>9</v>
+      </c>
+      <c r="C30" s="7">
         <v>-1</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="7">
         <v>-1</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="7">
         <v>17</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="6" t="s">
+      <c r="F30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="8">
         <v>440</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="5">
-        <v>1425</v>
-      </c>
-      <c r="B31" s="6">
+      <c r="A31" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B31" s="7">
         <v>10</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="7">
         <v>19</v>
       </c>
-      <c r="F31" s="6">
-        <v>9</v>
-      </c>
-      <c r="G31" s="6" t="s">
+      <c r="F31" s="7">
+        <v>9</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="8">
         <v>440</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="5">
-        <v>1425</v>
-      </c>
-      <c r="B32" s="6">
+      <c r="A32" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B32" s="7">
         <v>11</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="7">
         <v>19</v>
       </c>
-      <c r="F32" s="6">
-        <v>9</v>
-      </c>
-      <c r="G32" s="6" t="s">
+      <c r="F32" s="7">
+        <v>9</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="8">
         <v>440</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="5">
-        <v>1425</v>
-      </c>
-      <c r="B33" s="6">
+      <c r="A33" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B33" s="7">
         <v>12</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="7">
         <v>19</v>
       </c>
-      <c r="F33" s="6">
-        <v>9</v>
-      </c>
-      <c r="G33" s="6" t="s">
+      <c r="F33" s="7">
+        <v>9</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="8">
         <v>440</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="5">
-        <v>1425</v>
-      </c>
-      <c r="B34" s="6">
+      <c r="A34" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B34" s="7">
         <v>13</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="7">
         <v>2</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="7">
         <v>2</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="7">
         <v>21</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="7">
         <v>13</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="8">
         <v>440</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="5">
-        <v>1425</v>
-      </c>
-      <c r="B35" s="6">
+      <c r="A35" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B35" s="7">
         <v>14</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="7">
         <v>2</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="7">
         <v>2</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="7">
         <v>21</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="7">
         <v>13</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="8">
         <v>440</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="5">
-        <v>1425</v>
-      </c>
-      <c r="B36" s="6">
+      <c r="A36" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B36" s="7">
         <v>15</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="7">
         <v>3</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="7">
         <v>3</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="7">
         <v>23</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="7">
         <v>16</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="8">
         <v>440</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="5">
-        <v>1425</v>
-      </c>
-      <c r="B37" s="6">
+      <c r="A37" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B37" s="7">
         <v>16</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="7">
         <v>4</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="7">
         <v>4</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="7">
         <v>24</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="7">
         <v>21</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="8">
         <v>440</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="5">
-        <v>1425</v>
-      </c>
-      <c r="B38" s="6">
+      <c r="A38" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B38" s="7">
         <v>17</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="7">
         <v>5</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="7">
         <v>5</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="7">
         <v>26</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="7">
         <v>23</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="8">
         <v>440</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="5">
-        <v>1425</v>
-      </c>
-      <c r="B39" s="6">
+      <c r="A39" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B39" s="7">
         <v>18</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="7">
         <v>6</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="7">
         <v>6</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="7">
         <v>27</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="7">
         <v>27</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="8">
         <v>440</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="5">
-        <v>1425</v>
-      </c>
-      <c r="B40" s="6">
+      <c r="A40" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B40" s="7">
         <v>19</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="7">
         <v>7</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="7">
         <v>7</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="7">
         <v>28</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="7">
         <v>28</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="7">
         <v>1</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="8">
         <v>440</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="5">
-        <v>1425</v>
-      </c>
-      <c r="B41" s="6">
+      <c r="A41" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B41" s="7">
         <v>20</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="7">
         <v>7</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="7">
         <v>7</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="7">
         <v>28</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="7">
         <v>28</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="7">
         <v>1</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="8">
         <v>440</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3061,4 +3070,196 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E34554-567E-4640-BB10-BF8C510B0742}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B12" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B14" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B15" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B16" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B17" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B18" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B19" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B20" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tuning Database.xlsx
+++ b/Tuning Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackrockett/PycharmProjects/J70_Tuning_Guide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB3A166-91CF-8C45-AA4C-D72F7FADCB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7F658E-4973-0A49-B168-435E749317C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rig Tuning Database" sheetId="1" r:id="rId1"/>
@@ -466,7 +466,7 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -1030,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CBEFC84-B3D8-FE4A-AFC9-8F9DD284FE98}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/Tuning Database.xlsx
+++ b/Tuning Database.xlsx
@@ -1,29 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackrockett/PycharmProjects/J70_Tuning_Guide/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajackrockett/PycharmProjects/J70_Tuning_Guide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7F658E-4973-0A49-B168-435E749317C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014A0076-59F9-B24B-8B1F-F65DA3DA38CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-56860" yWindow="-3480" windowWidth="22440" windowHeight="12640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rig Tuning Database" sheetId="1" r:id="rId1"/>
     <sheet name="Rig_by_weight" sheetId="3" r:id="rId2"/>
     <sheet name="JIB Tuning Database" sheetId="2" r:id="rId3"/>
     <sheet name="Template" sheetId="5" r:id="rId4"/>
+    <sheet name="Polars" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="56">
   <si>
     <t>RAKE</t>
   </si>
@@ -173,6 +187,24 @@
   </si>
   <si>
     <t>-1</t>
+  </si>
+  <si>
+    <t>wind_speed</t>
+  </si>
+  <si>
+    <t>beat_target</t>
+  </si>
+  <si>
+    <t>run_target</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>beat</t>
+  </si>
+  <si>
+    <t>run</t>
   </si>
 </sst>
 </file>
@@ -261,6 +293,1209 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Polars!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>beat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Polars!$H$4:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Polars!$I$4:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8999999999999977</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3399999999999981</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7799999999999985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6599999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.61</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.79</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.81</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.82</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.83</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.84</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CF82-794D-8527-200BCC9D5344}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Polars!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>run</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Polars!$H$4:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Polars!$J$4:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.93</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.05</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.51</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.01</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.52</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.5500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CF82-794D-8527-200BCC9D5344}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="660139679"/>
+        <c:axId val="660029663"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="660139679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="660029663"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="660029663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="660139679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>122544</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>144825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>509114</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>34758</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69508E4B-5111-CBC3-F244-FE8B13CFF842}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1030,7 +2265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CBEFC84-B3D8-FE4A-AFC9-8F9DD284FE98}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -3262,4 +4497,527 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B2EE7A-CE72-9144-B8A8-52A552CB2EEF}">
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G2">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.8999999999999977</v>
+      </c>
+      <c r="C3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G3">
+        <v>5.34</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2.3399999999999981</v>
+      </c>
+      <c r="C4">
+        <v>2.6</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>5.5</v>
+      </c>
+      <c r="G4">
+        <v>5.93</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2.7799999999999985</v>
+      </c>
+      <c r="C5">
+        <v>3.1</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5.72</v>
+      </c>
+      <c r="G5">
+        <v>6.6</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.8999999999999977</v>
+      </c>
+      <c r="J5">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3.2199999999999989</v>
+      </c>
+      <c r="C6">
+        <v>3.5</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5.79</v>
+      </c>
+      <c r="G6">
+        <v>7.51</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2.3399999999999981</v>
+      </c>
+      <c r="J6">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3.6599999999999993</v>
+      </c>
+      <c r="C7">
+        <v>3.9</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7" s="5">
+        <v>5.81</v>
+      </c>
+      <c r="G7">
+        <v>8.52</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>2.7799999999999985</v>
+      </c>
+      <c r="J7">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C8">
+        <v>4.37</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8" s="5">
+        <v>5.85</v>
+      </c>
+      <c r="G8">
+        <v>12.67</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>3.2199999999999989</v>
+      </c>
+      <c r="J8">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>4.54</v>
+      </c>
+      <c r="C9">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>3.6599999999999993</v>
+      </c>
+      <c r="J9">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="C10">
+        <v>5.34</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J10">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>5.24</v>
+      </c>
+      <c r="C11">
+        <v>5.64</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>4.54</v>
+      </c>
+      <c r="J11">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>5.5</v>
+      </c>
+      <c r="C12">
+        <v>5.93</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="J12">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>5.61</v>
+      </c>
+      <c r="C13">
+        <v>6.27</v>
+      </c>
+      <c r="H13">
+        <v>9</v>
+      </c>
+      <c r="I13">
+        <v>5.24</v>
+      </c>
+      <c r="J13">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>5.72</v>
+      </c>
+      <c r="C14">
+        <v>6.6</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>5.5</v>
+      </c>
+      <c r="J14">
+        <v>5.93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>5.75</v>
+      </c>
+      <c r="C15">
+        <v>7.05</v>
+      </c>
+      <c r="H15">
+        <v>11</v>
+      </c>
+      <c r="I15">
+        <v>5.61</v>
+      </c>
+      <c r="J15">
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>5.79</v>
+      </c>
+      <c r="C16">
+        <v>7.51</v>
+      </c>
+      <c r="H16">
+        <v>12</v>
+      </c>
+      <c r="I16">
+        <v>5.72</v>
+      </c>
+      <c r="J16">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>5.8</v>
+      </c>
+      <c r="C17">
+        <v>8.01</v>
+      </c>
+      <c r="H17">
+        <v>13</v>
+      </c>
+      <c r="I17">
+        <v>5.75</v>
+      </c>
+      <c r="J17">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>5.81</v>
+      </c>
+      <c r="C18">
+        <v>8.52</v>
+      </c>
+      <c r="H18">
+        <v>14</v>
+      </c>
+      <c r="I18">
+        <v>5.79</v>
+      </c>
+      <c r="J18">
+        <v>7.51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>5.82</v>
+      </c>
+      <c r="C19">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="H19">
+        <v>15</v>
+      </c>
+      <c r="I19">
+        <v>5.8</v>
+      </c>
+      <c r="J19">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>5.83</v>
+      </c>
+      <c r="C20">
+        <v>10.6</v>
+      </c>
+      <c r="H20">
+        <v>16</v>
+      </c>
+      <c r="I20">
+        <v>5.81</v>
+      </c>
+      <c r="J20">
+        <v>8.52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>5.84</v>
+      </c>
+      <c r="C21">
+        <v>11.6</v>
+      </c>
+      <c r="H21">
+        <v>17</v>
+      </c>
+      <c r="I21">
+        <v>5.82</v>
+      </c>
+      <c r="J21" s="5">
+        <v>9.5500000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>5.85</v>
+      </c>
+      <c r="C22">
+        <v>12.67</v>
+      </c>
+      <c r="H22">
+        <v>18</v>
+      </c>
+      <c r="I22">
+        <v>5.83</v>
+      </c>
+      <c r="J22" s="5">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H23">
+        <v>19</v>
+      </c>
+      <c r="I23">
+        <v>5.84</v>
+      </c>
+      <c r="J23" s="5">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H24">
+        <v>20</v>
+      </c>
+      <c r="I24">
+        <v>5.85</v>
+      </c>
+      <c r="J24">
+        <v>12.67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Tuning Database.xlsx
+++ b/Tuning Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajackrockett/PycharmProjects/J70_Tuning_Guide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014A0076-59F9-B24B-8B1F-F65DA3DA38CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8BC3C7-E2E8-E243-8C37-CEC0FF7B14B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-56860" yWindow="-3480" windowWidth="22440" windowHeight="12640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rig Tuning Database" sheetId="1" r:id="rId1"/>
@@ -1461,16 +1461,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>122544</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>144825</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>89123</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>509114</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>34758</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>475693</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>23618</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2265,8 +2265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CBEFC84-B3D8-FE4A-AFC9-8F9DD284FE98}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>420</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>420</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>420</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>420</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>420</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -2471,7 +2471,7 @@
         <v>11</v>
       </c>
       <c r="I7">
-        <v>420</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -2500,7 +2500,7 @@
         <v>11</v>
       </c>
       <c r="I8">
-        <v>420</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -2529,7 +2529,7 @@
         <v>14</v>
       </c>
       <c r="I9">
-        <v>420</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -2558,7 +2558,7 @@
         <v>14</v>
       </c>
       <c r="I10">
-        <v>420</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -2587,7 +2587,7 @@
         <v>14</v>
       </c>
       <c r="I11">
-        <v>420</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -2616,7 +2616,7 @@
         <v>16</v>
       </c>
       <c r="I12">
-        <v>420</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -2645,7 +2645,7 @@
         <v>16</v>
       </c>
       <c r="I13">
-        <v>420</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -2674,7 +2674,7 @@
         <v>18</v>
       </c>
       <c r="I14">
-        <v>420</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -2703,7 +2703,7 @@
         <v>20</v>
       </c>
       <c r="I15">
-        <v>420</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -2732,7 +2732,7 @@
         <v>22</v>
       </c>
       <c r="I16">
-        <v>420</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -2761,7 +2761,7 @@
         <v>23</v>
       </c>
       <c r="I17">
-        <v>420</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -2790,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <v>420</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -2819,7 +2819,7 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <v>420</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -2848,7 +2848,7 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <v>420</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -2877,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <v>420</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="8">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -2935,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="8">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="8">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="8">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -3022,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="8">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="8">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="8">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -3109,7 +3109,7 @@
         <v>11</v>
       </c>
       <c r="I29" s="8">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -3138,7 +3138,7 @@
         <v>11</v>
       </c>
       <c r="I30" s="8">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -3167,7 +3167,7 @@
         <v>14</v>
       </c>
       <c r="I31" s="8">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -3196,7 +3196,7 @@
         <v>14</v>
       </c>
       <c r="I32" s="8">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -3225,7 +3225,7 @@
         <v>14</v>
       </c>
       <c r="I33" s="8">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -3254,7 +3254,7 @@
         <v>16</v>
       </c>
       <c r="I34" s="8">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -3283,7 +3283,7 @@
         <v>16</v>
       </c>
       <c r="I35" s="8">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -3312,7 +3312,7 @@
         <v>18</v>
       </c>
       <c r="I36" s="8">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -3341,7 +3341,7 @@
         <v>20</v>
       </c>
       <c r="I37" s="8">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -3370,7 +3370,7 @@
         <v>22</v>
       </c>
       <c r="I38" s="8">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
@@ -3399,7 +3399,7 @@
         <v>23</v>
       </c>
       <c r="I39" s="8">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
@@ -3428,7 +3428,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="8">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -3457,7 +3457,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="8">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -4503,8 +4503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B2EE7A-CE72-9144-B8A8-52A552CB2EEF}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/Tuning Database.xlsx
+++ b/Tuning Database.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajackrockett/PycharmProjects/J70_Tuning_Guide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8BC3C7-E2E8-E243-8C37-CEC0FF7B14B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF872D5-168C-0541-A862-C588357EB29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rig Tuning Database" sheetId="1" r:id="rId1"/>
-    <sheet name="Rig_by_weight" sheetId="3" r:id="rId2"/>
-    <sheet name="JIB Tuning Database" sheetId="2" r:id="rId3"/>
-    <sheet name="Template" sheetId="5" r:id="rId4"/>
-    <sheet name="Polars" sheetId="6" r:id="rId5"/>
+    <sheet name="JIB Tuning Database" sheetId="2" r:id="rId2"/>
+    <sheet name="Template" sheetId="5" r:id="rId3"/>
+    <sheet name="Polars" sheetId="6" r:id="rId4"/>
+    <sheet name="Rig_by_weight" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="68">
   <si>
     <t>RAKE</t>
   </si>
@@ -205,6 +205,42 @@
   </si>
   <si>
     <t>run</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
 </sst>
 </file>
@@ -1461,16 +1497,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>89123</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>133685</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>479035</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>155965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>475693</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>23618</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>41220</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45898</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1702,7 +1738,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2003,14 +2039,14 @@
       <c r="B12" s="2">
         <v>11</v>
       </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>21</v>
+      <c r="C12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="F12" s="2">
         <v>13</v>
@@ -2032,8 +2068,8 @@
       <c r="C13" s="2">
         <v>2</v>
       </c>
-      <c r="D13" s="2">
-        <v>2</v>
+      <c r="D13" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="E13" s="2">
         <v>21</v>
@@ -2058,8 +2094,8 @@
       <c r="C14" s="2">
         <v>3</v>
       </c>
-      <c r="D14" s="2">
-        <v>3</v>
+      <c r="D14" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="E14" s="2">
         <v>23</v>
@@ -2084,8 +2120,8 @@
       <c r="C15" s="2">
         <v>4</v>
       </c>
-      <c r="D15" s="2">
-        <v>4</v>
+      <c r="D15" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="E15" s="2">
         <v>24</v>
@@ -2110,8 +2146,8 @@
       <c r="C16" s="2">
         <v>5</v>
       </c>
-      <c r="D16" s="2">
-        <v>5</v>
+      <c r="D16" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E16" s="2">
         <v>26</v>
@@ -2136,8 +2172,8 @@
       <c r="C17" s="2">
         <v>6</v>
       </c>
-      <c r="D17" s="2">
-        <v>6</v>
+      <c r="D17" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E17" s="2">
         <v>27</v>
@@ -2162,8 +2198,8 @@
       <c r="C18" s="2">
         <v>7</v>
       </c>
-      <c r="D18" s="2">
-        <v>7</v>
+      <c r="D18" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="E18" s="2">
         <v>28</v>
@@ -2185,11 +2221,11 @@
       <c r="B19" s="2">
         <v>18</v>
       </c>
-      <c r="C19" s="2">
-        <v>7</v>
-      </c>
-      <c r="D19" s="2">
-        <v>7</v>
+      <c r="C19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="E19" s="2">
         <v>28</v>
@@ -2214,8 +2250,8 @@
       <c r="C20" s="2">
         <v>8</v>
       </c>
-      <c r="D20" s="2">
-        <v>8</v>
+      <c r="D20" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="E20" s="2">
         <v>29</v>
@@ -2237,11 +2273,11 @@
       <c r="B21" s="2">
         <v>20</v>
       </c>
-      <c r="C21" s="2">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2">
-        <v>8.5</v>
+      <c r="C21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="E21" s="2">
         <v>30</v>
@@ -2262,1211 +2298,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CBEFC84-B3D8-FE4A-AFC9-8F9DD284FE98}">
-  <dimension ref="A1:I41"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1425</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>-2</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="2">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>1425</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>-2</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="2">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>1425</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>-2</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="2">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>1425</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>-2</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="2">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>1425</v>
-      </c>
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>-2</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="2">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>1425</v>
-      </c>
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2">
-        <v>-1</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="2">
-        <v>17</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>1425</v>
-      </c>
-      <c r="B8" s="2">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2">
-        <v>-1</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="2">
-        <v>17</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>1425</v>
-      </c>
-      <c r="B9" s="2">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="2">
-        <v>19</v>
-      </c>
-      <c r="F9" s="2">
-        <v>9</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>1425</v>
-      </c>
-      <c r="B10" s="2">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="2">
-        <v>19</v>
-      </c>
-      <c r="F10" s="2">
-        <v>9</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>1425</v>
-      </c>
-      <c r="B11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="2">
-        <v>19</v>
-      </c>
-      <c r="F11" s="2">
-        <v>9</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>1425</v>
-      </c>
-      <c r="B12" s="2">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>21</v>
-      </c>
-      <c r="F12" s="2">
-        <v>13</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
-        <v>1425</v>
-      </c>
-      <c r="B13" s="2">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>21</v>
-      </c>
-      <c r="F13" s="2">
-        <v>13</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
-        <v>1425</v>
-      </c>
-      <c r="B14" s="2">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2">
-        <v>23</v>
-      </c>
-      <c r="F14" s="2">
-        <v>16</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
-        <v>1425</v>
-      </c>
-      <c r="B15" s="2">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2">
-        <v>4</v>
-      </c>
-      <c r="D15" s="2">
-        <v>4</v>
-      </c>
-      <c r="E15" s="2">
-        <v>24</v>
-      </c>
-      <c r="F15" s="2">
-        <v>21</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
-        <v>1425</v>
-      </c>
-      <c r="B16" s="2">
-        <v>15</v>
-      </c>
-      <c r="C16" s="2">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2">
-        <v>5</v>
-      </c>
-      <c r="E16" s="2">
-        <v>26</v>
-      </c>
-      <c r="F16" s="2">
-        <v>23</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
-        <v>1425</v>
-      </c>
-      <c r="B17" s="2">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2">
-        <v>6</v>
-      </c>
-      <c r="D17" s="2">
-        <v>6</v>
-      </c>
-      <c r="E17" s="2">
-        <v>27</v>
-      </c>
-      <c r="F17" s="2">
-        <v>27</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
-        <v>1425</v>
-      </c>
-      <c r="B18" s="2">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2">
-        <v>7</v>
-      </c>
-      <c r="D18" s="2">
-        <v>7</v>
-      </c>
-      <c r="E18" s="2">
-        <v>28</v>
-      </c>
-      <c r="F18" s="2">
-        <v>28</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
-        <v>1425</v>
-      </c>
-      <c r="B19" s="2">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2">
-        <v>7</v>
-      </c>
-      <c r="D19" s="2">
-        <v>7</v>
-      </c>
-      <c r="E19" s="2">
-        <v>28</v>
-      </c>
-      <c r="F19" s="2">
-        <v>28</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
-        <v>1425</v>
-      </c>
-      <c r="B20" s="2">
-        <v>19</v>
-      </c>
-      <c r="C20" s="2">
-        <v>8</v>
-      </c>
-      <c r="D20" s="2">
-        <v>8</v>
-      </c>
-      <c r="E20" s="2">
-        <v>29</v>
-      </c>
-      <c r="F20" s="2">
-        <v>30</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
-        <v>1425</v>
-      </c>
-      <c r="B21" s="2">
-        <v>20</v>
-      </c>
-      <c r="C21" s="2">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="E21" s="2">
-        <v>30</v>
-      </c>
-      <c r="F21" s="2">
-        <v>32</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="6">
-        <v>1425</v>
-      </c>
-      <c r="B22" s="7">
-        <v>1</v>
-      </c>
-      <c r="C22" s="7">
-        <v>-2</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="7">
-        <v>15</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="8">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="6">
-        <v>1425</v>
-      </c>
-      <c r="B23" s="7">
-        <v>2</v>
-      </c>
-      <c r="C23" s="7">
-        <v>-2</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="7">
-        <v>15</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="8">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="6">
-        <v>1425</v>
-      </c>
-      <c r="B24" s="7">
-        <v>3</v>
-      </c>
-      <c r="C24" s="7">
-        <v>-2</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="7">
-        <v>15</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="6">
-        <v>1425</v>
-      </c>
-      <c r="B25" s="7">
-        <v>4</v>
-      </c>
-      <c r="C25" s="7">
-        <v>-2</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="7">
-        <v>15</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="8">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="6">
-        <v>1425</v>
-      </c>
-      <c r="B26" s="7">
-        <v>5</v>
-      </c>
-      <c r="C26" s="7">
-        <v>-2</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="7">
-        <v>15</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="8">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="6">
-        <v>1425</v>
-      </c>
-      <c r="B27" s="7">
-        <v>6</v>
-      </c>
-      <c r="C27" s="7">
-        <v>-2</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="7">
-        <v>15</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="8">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="6">
-        <v>1425</v>
-      </c>
-      <c r="B28" s="7">
-        <v>7</v>
-      </c>
-      <c r="C28" s="7">
-        <v>-2</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="7">
-        <v>15</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="8">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="6">
-        <v>1425</v>
-      </c>
-      <c r="B29" s="7">
-        <v>8</v>
-      </c>
-      <c r="C29" s="7">
-        <v>-1</v>
-      </c>
-      <c r="D29" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E29" s="7">
-        <v>17</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="8">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="6">
-        <v>1425</v>
-      </c>
-      <c r="B30" s="7">
-        <v>9</v>
-      </c>
-      <c r="C30" s="7">
-        <v>-1</v>
-      </c>
-      <c r="D30" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E30" s="7">
-        <v>17</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" s="8">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="6">
-        <v>1425</v>
-      </c>
-      <c r="B31" s="7">
-        <v>10</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="7">
-        <v>19</v>
-      </c>
-      <c r="F31" s="7">
-        <v>9</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="8">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="6">
-        <v>1425</v>
-      </c>
-      <c r="B32" s="7">
-        <v>11</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="7">
-        <v>19</v>
-      </c>
-      <c r="F32" s="7">
-        <v>9</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="8">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="6">
-        <v>1425</v>
-      </c>
-      <c r="B33" s="7">
-        <v>12</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="7">
-        <v>19</v>
-      </c>
-      <c r="F33" s="7">
-        <v>9</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="8">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="6">
-        <v>1425</v>
-      </c>
-      <c r="B34" s="7">
-        <v>13</v>
-      </c>
-      <c r="C34" s="7">
-        <v>2</v>
-      </c>
-      <c r="D34" s="7">
-        <v>2</v>
-      </c>
-      <c r="E34" s="7">
-        <v>21</v>
-      </c>
-      <c r="F34" s="7">
-        <v>13</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="8">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="6">
-        <v>1425</v>
-      </c>
-      <c r="B35" s="7">
-        <v>14</v>
-      </c>
-      <c r="C35" s="7">
-        <v>2</v>
-      </c>
-      <c r="D35" s="7">
-        <v>2</v>
-      </c>
-      <c r="E35" s="7">
-        <v>21</v>
-      </c>
-      <c r="F35" s="7">
-        <v>13</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="8">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="6">
-        <v>1425</v>
-      </c>
-      <c r="B36" s="7">
-        <v>15</v>
-      </c>
-      <c r="C36" s="7">
-        <v>3</v>
-      </c>
-      <c r="D36" s="7">
-        <v>3</v>
-      </c>
-      <c r="E36" s="7">
-        <v>23</v>
-      </c>
-      <c r="F36" s="7">
-        <v>16</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" s="8">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="6">
-        <v>1425</v>
-      </c>
-      <c r="B37" s="7">
-        <v>16</v>
-      </c>
-      <c r="C37" s="7">
-        <v>4</v>
-      </c>
-      <c r="D37" s="7">
-        <v>4</v>
-      </c>
-      <c r="E37" s="7">
-        <v>24</v>
-      </c>
-      <c r="F37" s="7">
-        <v>21</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="8">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="6">
-        <v>1425</v>
-      </c>
-      <c r="B38" s="7">
-        <v>17</v>
-      </c>
-      <c r="C38" s="7">
-        <v>5</v>
-      </c>
-      <c r="D38" s="7">
-        <v>5</v>
-      </c>
-      <c r="E38" s="7">
-        <v>26</v>
-      </c>
-      <c r="F38" s="7">
-        <v>23</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I38" s="8">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="6">
-        <v>1425</v>
-      </c>
-      <c r="B39" s="7">
-        <v>18</v>
-      </c>
-      <c r="C39" s="7">
-        <v>6</v>
-      </c>
-      <c r="D39" s="7">
-        <v>6</v>
-      </c>
-      <c r="E39" s="7">
-        <v>27</v>
-      </c>
-      <c r="F39" s="7">
-        <v>27</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I39" s="8">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="6">
-        <v>1425</v>
-      </c>
-      <c r="B40" s="7">
-        <v>19</v>
-      </c>
-      <c r="C40" s="7">
-        <v>7</v>
-      </c>
-      <c r="D40" s="7">
-        <v>7</v>
-      </c>
-      <c r="E40" s="7">
-        <v>28</v>
-      </c>
-      <c r="F40" s="7">
-        <v>28</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="7">
-        <v>1</v>
-      </c>
-      <c r="I40" s="8">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="6">
-        <v>1425</v>
-      </c>
-      <c r="B41" s="7">
-        <v>20</v>
-      </c>
-      <c r="C41" s="7">
-        <v>7</v>
-      </c>
-      <c r="D41" s="7">
-        <v>7</v>
-      </c>
-      <c r="E41" s="7">
-        <v>28</v>
-      </c>
-      <c r="F41" s="7">
-        <v>28</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41" s="7">
-        <v>1</v>
-      </c>
-      <c r="I41" s="8">
-        <v>425</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3474,7 +2305,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3610,7 +2441,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="4">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>32</v>
@@ -3630,7 +2461,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="4">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>32</v>
@@ -3650,7 +2481,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>34</v>
@@ -3670,7 +2501,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="4">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>34</v>
@@ -3690,7 +2521,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>36</v>
@@ -3710,7 +2541,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>36</v>
@@ -3730,7 +2561,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="4">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>37</v>
@@ -3750,7 +2581,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="4">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>39</v>
@@ -3770,7 +2601,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="4">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>34</v>
@@ -3790,7 +2621,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="4">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>40</v>
@@ -3810,7 +2641,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="4">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>40</v>
@@ -3830,7 +2661,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="4">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>40</v>
@@ -3850,7 +2681,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="4">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>40</v>
@@ -3870,7 +2701,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="4">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>40</v>
@@ -3890,7 +2721,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="4">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>40</v>
@@ -4307,11 +3138,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E34554-567E-4640-BB10-BF8C510B0742}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -4499,7 +3330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B2EE7A-CE72-9144-B8A8-52A552CB2EEF}">
   <dimension ref="A1:J24"/>
   <sheetViews>
@@ -5020,4 +3851,1209 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CBEFC84-B3D8-FE4A-AFC9-8F9DD284FE98}">
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-2</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="2">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-2</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="2">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-2</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="2">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-2</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="2">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="2">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="2">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="2">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="2">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2">
+        <v>9</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B12" s="2">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2">
+        <v>13</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2">
+        <v>13</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B14" s="2">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>23</v>
+      </c>
+      <c r="F14" s="2">
+        <v>16</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B15" s="2">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2">
+        <v>24</v>
+      </c>
+      <c r="F15" s="2">
+        <v>21</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B16" s="2">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <v>26</v>
+      </c>
+      <c r="F16" s="2">
+        <v>23</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B17" s="2">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2">
+        <v>27</v>
+      </c>
+      <c r="F17" s="2">
+        <v>27</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B18" s="2">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2">
+        <v>28</v>
+      </c>
+      <c r="F18" s="2">
+        <v>28</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B19" s="2">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2">
+        <v>7</v>
+      </c>
+      <c r="E19" s="2">
+        <v>28</v>
+      </c>
+      <c r="F19" s="2">
+        <v>28</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B20" s="2">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2">
+        <v>29</v>
+      </c>
+      <c r="F20" s="2">
+        <v>30</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>1425</v>
+      </c>
+      <c r="B21" s="2">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="E21" s="2">
+        <v>30</v>
+      </c>
+      <c r="F21" s="2">
+        <v>32</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1</v>
+      </c>
+      <c r="C22" s="7">
+        <v>-2</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="7">
+        <v>15</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="8">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B23" s="7">
+        <v>2</v>
+      </c>
+      <c r="C23" s="7">
+        <v>-2</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="7">
+        <v>15</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B24" s="7">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7">
+        <v>-2</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="7">
+        <v>15</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="8">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B25" s="7">
+        <v>4</v>
+      </c>
+      <c r="C25" s="7">
+        <v>-2</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="7">
+        <v>15</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="8">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B26" s="7">
+        <v>5</v>
+      </c>
+      <c r="C26" s="7">
+        <v>-2</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="7">
+        <v>15</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="8">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B27" s="7">
+        <v>6</v>
+      </c>
+      <c r="C27" s="7">
+        <v>-2</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="7">
+        <v>15</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B28" s="7">
+        <v>7</v>
+      </c>
+      <c r="C28" s="7">
+        <v>-2</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="7">
+        <v>15</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="8">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B29" s="7">
+        <v>8</v>
+      </c>
+      <c r="C29" s="7">
+        <v>-1</v>
+      </c>
+      <c r="D29" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E29" s="7">
+        <v>17</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="8">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B30" s="7">
+        <v>9</v>
+      </c>
+      <c r="C30" s="7">
+        <v>-1</v>
+      </c>
+      <c r="D30" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E30" s="7">
+        <v>17</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="8">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B31" s="7">
+        <v>10</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="7">
+        <v>19</v>
+      </c>
+      <c r="F31" s="7">
+        <v>9</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="8">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B32" s="7">
+        <v>11</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="7">
+        <v>19</v>
+      </c>
+      <c r="F32" s="7">
+        <v>9</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="8">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B33" s="7">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="7">
+        <v>19</v>
+      </c>
+      <c r="F33" s="7">
+        <v>9</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="8">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B34" s="7">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2</v>
+      </c>
+      <c r="E34" s="7">
+        <v>21</v>
+      </c>
+      <c r="F34" s="7">
+        <v>13</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="8">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B35" s="7">
+        <v>14</v>
+      </c>
+      <c r="C35" s="7">
+        <v>2</v>
+      </c>
+      <c r="D35" s="7">
+        <v>2</v>
+      </c>
+      <c r="E35" s="7">
+        <v>21</v>
+      </c>
+      <c r="F35" s="7">
+        <v>13</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="8">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B36" s="7">
+        <v>15</v>
+      </c>
+      <c r="C36" s="7">
+        <v>3</v>
+      </c>
+      <c r="D36" s="7">
+        <v>3</v>
+      </c>
+      <c r="E36" s="7">
+        <v>23</v>
+      </c>
+      <c r="F36" s="7">
+        <v>16</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="8">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B37" s="7">
+        <v>16</v>
+      </c>
+      <c r="C37" s="7">
+        <v>4</v>
+      </c>
+      <c r="D37" s="7">
+        <v>4</v>
+      </c>
+      <c r="E37" s="7">
+        <v>24</v>
+      </c>
+      <c r="F37" s="7">
+        <v>21</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="8">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B38" s="7">
+        <v>17</v>
+      </c>
+      <c r="C38" s="7">
+        <v>5</v>
+      </c>
+      <c r="D38" s="7">
+        <v>5</v>
+      </c>
+      <c r="E38" s="7">
+        <v>26</v>
+      </c>
+      <c r="F38" s="7">
+        <v>23</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="8">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B39" s="7">
+        <v>18</v>
+      </c>
+      <c r="C39" s="7">
+        <v>6</v>
+      </c>
+      <c r="D39" s="7">
+        <v>6</v>
+      </c>
+      <c r="E39" s="7">
+        <v>27</v>
+      </c>
+      <c r="F39" s="7">
+        <v>27</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="8">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B40" s="7">
+        <v>19</v>
+      </c>
+      <c r="C40" s="7">
+        <v>7</v>
+      </c>
+      <c r="D40" s="7">
+        <v>7</v>
+      </c>
+      <c r="E40" s="7">
+        <v>28</v>
+      </c>
+      <c r="F40" s="7">
+        <v>28</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="7">
+        <v>1</v>
+      </c>
+      <c r="I40" s="8">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" s="6">
+        <v>1425</v>
+      </c>
+      <c r="B41" s="7">
+        <v>20</v>
+      </c>
+      <c r="C41" s="7">
+        <v>7</v>
+      </c>
+      <c r="D41" s="7">
+        <v>7</v>
+      </c>
+      <c r="E41" s="7">
+        <v>28</v>
+      </c>
+      <c r="F41" s="7">
+        <v>28</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1</v>
+      </c>
+      <c r="I41" s="8">
+        <v>425</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>